--- a/data/db/portfolios.xlsx
+++ b/data/db/portfolios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\app\data\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3404A-8ECA-4775-BB2C-BD7F249E4351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A349C8-4968-4376-90DC-9AFBD65D10E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,23 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>MSP SW</t>
-  </si>
-  <si>
     <t>MKE Airport</t>
   </si>
   <si>
-    <t>Toro Workforce Housing</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -66,6 +57,18 @@
   </si>
   <si>
     <t>pid</t>
+  </si>
+  <si>
+    <t>Des Moines Multifamily Portfolio</t>
+  </si>
+  <si>
+    <t>CCC Industrial Portfolio</t>
+  </si>
+  <si>
+    <t>MSP Southwest Industrial Portfolio</t>
+  </si>
+  <si>
+    <t>Toro Multifamily Portfolio</t>
   </si>
 </sst>
 </file>
@@ -468,9 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -479,7 +484,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -490,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +527,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,8 +559,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
